--- a/agency credentials.xlsx
+++ b/agency credentials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI0656\SQL-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI0656\SQL_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4691,10 +4691,10 @@
     <t>MAPFBA</t>
   </si>
   <si>
-    <t>admin@sdc.com / Adoption123</t>
-  </si>
-  <si>
     <t>info@adoptionsofindiana.org/adopt12345</t>
+  </si>
+  <si>
+    <t>admin@sdc.com / Adoption456</t>
   </si>
 </sst>
 </file>
@@ -7519,7 +7519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
       <selection activeCell="H307" sqref="H307"/>
     </sheetView>
   </sheetViews>
@@ -11434,7 +11434,7 @@
         <v>1061</v>
       </c>
       <c r="H229" s="95" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11993,7 +11993,7 @@
         <v>1245</v>
       </c>
       <c r="H272" s="109" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="275" spans="3:8">
